--- a/Recorded.xlsx
+++ b/Recorded.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CDAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CDAC\CDAC_RecordedSessions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351495F-FEC6-4472-B640-F816AA54432F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D18A9-1FAA-4E90-89F7-F2BB399BFCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ARM(1)" sheetId="5" r:id="rId5"/>
     <sheet name="OS" sheetId="6" r:id="rId6"/>
     <sheet name="RTOS" sheetId="7" r:id="rId7"/>
+    <sheet name="Linux Device Drivers" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="192">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -595,13 +596,25 @@
   </si>
   <si>
     <t>RTOS Introduction</t>
+  </si>
+  <si>
+    <t>https://meghsikshak.in/video/5fa536b233afcd79e2403062</t>
+  </si>
+  <si>
+    <t>https://meghsikshak.in/video/5fa91f8b33afcd25ce6aa088</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Week OFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -653,8 +666,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +703,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -714,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,9 +812,6 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,6 +842,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1244,22 +1282,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1310,32 +1348,32 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>44030</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>44031</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1424,32 +1462,32 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>44037</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>44038</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1542,32 +1580,32 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>44044</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="35">
         <v>44045</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="40" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1658,32 +1696,32 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="35">
         <v>44051</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="A27" s="35">
         <v>44052</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="40" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1724,25 +1762,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1852,44 +1890,44 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>44058</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>44059</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2009,44 +2047,44 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>44065</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>44066</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2246,19 +2284,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2314,32 +2352,32 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>44072</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>44073</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2429,32 +2467,32 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>44079</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>44080</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2536,32 +2574,32 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>44086</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="35">
         <v>44087</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2581,7 +2619,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,19 +2632,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2692,32 +2730,32 @@
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>44093</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>44094</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2797,32 +2835,32 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>44100</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>44101</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2902,32 +2940,32 @@
       <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>44107</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="30" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>44108</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2974,19 +3012,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3053,32 +3091,32 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>44114</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>44115</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3105,16 +3143,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3189,30 +3227,30 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>44121</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>44122</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3287,30 +3325,30 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>44128</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>44129</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3385,30 +3423,30 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>44135</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="B21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>44136</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3422,45 +3460,45 @@
       <c r="C23" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3473,29 +3511,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A659E5A-B0AF-4324-B1E7-2BD1E4954C20}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3546,27 +3584,316 @@
       <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>188</v>
+      </c>
       <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44142</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44143</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33BB25-F131-4D0F-B8CB-2BE5CF56CD10}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
+        <v>44144</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>44145</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>44146</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>44147</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>44148</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>44149</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>44150</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>44151</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>44152</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>44153</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>44154</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>44155</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>44156</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>44157</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>44158</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>44159</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>44160</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>44161</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
+        <v>44162</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>44163</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>44164</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>